--- a/www.eia.gov/petroleum/production/xls/table5.xlsx
+++ b/www.eia.gov/petroleum/production/xls/table5.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas02\OEA\MLW\Documents\EIA-914 Survey Expansion\Webpage Docs\December 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas01\OES\mcr\Documents\914\2017.01_Final Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="14445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Table 5" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" fullPrecision="0"/>
+  <calcPr calcId="152511" iterateDelta="9.9999999999994451E-4" fullPrecision="0"/>
 </workbook>
 </file>
 
@@ -395,16 +395,16 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,13 +490,13 @@
                   <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.13700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.188</c:v>
+                  <c:v>0.187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29699999999999999</c:v>
+                  <c:v>0.29899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.113</c:v>
@@ -505,7 +505,7 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.0000000000000001E-3</c:v>
@@ -523,11 +523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320294256"/>
-        <c:axId val="320292576"/>
+        <c:axId val="197733088"/>
+        <c:axId val="199254400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320294256"/>
+        <c:axId val="197733088"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -536,7 +536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320292576"/>
+        <c:crossAx val="199254400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -544,7 +544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320292576"/>
+        <c:axId val="199254400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320294256"/>
+        <c:crossAx val="197733088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -628,10 +628,10 @@
                   <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6999999999999999E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90600000000000003</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.0000000000000001E-3</c:v>
@@ -649,11 +649,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320234496"/>
-        <c:axId val="331189040"/>
+        <c:axId val="200094848"/>
+        <c:axId val="200095408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320234496"/>
+        <c:axId val="200094848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -662,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331189040"/>
+        <c:crossAx val="200095408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331189040"/>
+        <c:axId val="200095408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320234496"/>
+        <c:crossAx val="200094848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,13 +754,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93300000000000005</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,11 +775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="331192400"/>
-        <c:axId val="331187920"/>
+        <c:axId val="200097648"/>
+        <c:axId val="200098208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331192400"/>
+        <c:axId val="200097648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -788,7 +788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331187920"/>
+        <c:crossAx val="200098208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -796,7 +796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331187920"/>
+        <c:axId val="200098208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331192400"/>
+        <c:crossAx val="200097648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,16 +877,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.105</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,11 +901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="331191840"/>
-        <c:axId val="331190160"/>
+        <c:axId val="200100448"/>
+        <c:axId val="200101008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331191840"/>
+        <c:axId val="200100448"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -914,7 +914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331190160"/>
+        <c:crossAx val="200101008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -922,7 +922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331190160"/>
+        <c:axId val="200101008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331191840"/>
+        <c:crossAx val="200100448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,13 +1006,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93200000000000005</c:v>
+                  <c:v>0.94099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,11 +1027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="317823056"/>
-        <c:axId val="317824176"/>
+        <c:axId val="200589744"/>
+        <c:axId val="200590304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317823056"/>
+        <c:axId val="200589744"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1040,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317824176"/>
+        <c:crossAx val="200590304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317824176"/>
+        <c:axId val="200590304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317823056"/>
+        <c:crossAx val="200589744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,13 +1132,13 @@
                   <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.307</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51</c:v>
+                  <c:v>0.51600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.159</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,11 +1153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="193589456"/>
-        <c:axId val="193590016"/>
+        <c:axId val="200592544"/>
+        <c:axId val="200593104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193589456"/>
+        <c:axId val="200592544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1166,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193590016"/>
+        <c:crossAx val="200593104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,7 +1174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193590016"/>
+        <c:axId val="200593104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193589456"/>
+        <c:crossAx val="200592544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,16 +1255,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55600000000000005</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.34899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,11 +1279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="325922208"/>
-        <c:axId val="325922768"/>
+        <c:axId val="200595344"/>
+        <c:axId val="200347696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325922208"/>
+        <c:axId val="200595344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1292,7 +1292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325922768"/>
+        <c:crossAx val="200347696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325922768"/>
+        <c:axId val="200347696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325922208"/>
+        <c:crossAx val="200595344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,13 +1384,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.161</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80100000000000005</c:v>
+                  <c:v>0.77300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="325925008"/>
-        <c:axId val="325925568"/>
+        <c:axId val="200349936"/>
+        <c:axId val="200350496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325925008"/>
+        <c:axId val="200349936"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1418,7 +1418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325925568"/>
+        <c:crossAx val="200350496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325925568"/>
+        <c:axId val="200350496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325925008"/>
+        <c:crossAx val="200349936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,16 +1507,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20200000000000001</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27</c:v>
+                  <c:v>0.27400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33600000000000002</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.193</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,11 +1531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="325927808"/>
-        <c:axId val="325928368"/>
+        <c:axId val="200352736"/>
+        <c:axId val="200353296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325927808"/>
+        <c:axId val="200352736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1544,7 +1544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325928368"/>
+        <c:crossAx val="200353296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325928368"/>
+        <c:axId val="200353296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325927808"/>
+        <c:crossAx val="200352736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,7 +1633,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.21299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.26</c:v>
@@ -1642,7 +1642,7 @@
                   <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,11 +1657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="237573088"/>
-        <c:axId val="237573648"/>
+        <c:axId val="200943536"/>
+        <c:axId val="200944096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237573088"/>
+        <c:axId val="200943536"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1670,7 +1670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237573648"/>
+        <c:crossAx val="200944096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237573648"/>
+        <c:axId val="200944096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237573088"/>
+        <c:crossAx val="200943536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,16 +1759,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26900000000000002</c:v>
+                  <c:v>0.26700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,11 +1783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="332778576"/>
-        <c:axId val="332784176"/>
+        <c:axId val="199256640"/>
+        <c:axId val="199257200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332778576"/>
+        <c:axId val="199256640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1796,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332784176"/>
+        <c:crossAx val="199257200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1804,7 +1804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332784176"/>
+        <c:axId val="199257200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332778576"/>
+        <c:crossAx val="199256640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1885,7 +1885,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.91800000000000004</c:v>
+                  <c:v>0.91900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.6999999999999999E-2</c:v>
@@ -1909,11 +1909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="332780816"/>
-        <c:axId val="332778016"/>
+        <c:axId val="199259440"/>
+        <c:axId val="199260000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332780816"/>
+        <c:axId val="199259440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1922,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332778016"/>
+        <c:crossAx val="199260000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332778016"/>
+        <c:axId val="199260000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332780816"/>
+        <c:crossAx val="199259440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2014,13 +2014,13 @@
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>0.16700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44</c:v>
+                  <c:v>0.45600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38800000000000001</c:v>
+                  <c:v>0.377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,11 +2035,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="332776896"/>
-        <c:axId val="332780256"/>
+        <c:axId val="199766048"/>
+        <c:axId val="199766608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332776896"/>
+        <c:axId val="199766048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2048,7 +2048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332780256"/>
+        <c:crossAx val="199766608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +2056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332780256"/>
+        <c:axId val="199766608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332776896"/>
+        <c:crossAx val="199766048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2137,10 +2137,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63200000000000001</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.4999999999999999E-2</c:v>
@@ -2161,11 +2161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320233936"/>
-        <c:axId val="320235056"/>
+        <c:axId val="199768848"/>
+        <c:axId val="199769408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320233936"/>
+        <c:axId val="199768848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2174,7 +2174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320235056"/>
+        <c:crossAx val="199769408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320235056"/>
+        <c:axId val="199769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320233936"/>
+        <c:crossAx val="199768848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2263,16 +2263,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,11 +2287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320232816"/>
-        <c:axId val="320231136"/>
+        <c:axId val="199771648"/>
+        <c:axId val="199772208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320232816"/>
+        <c:axId val="199771648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2300,7 +2300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320231136"/>
+        <c:crossAx val="199772208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2308,7 +2308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320231136"/>
+        <c:axId val="199772208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320232816"/>
+        <c:crossAx val="199771648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2389,16 +2389,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22700000000000001</c:v>
+                  <c:v>0.22900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,11 +2413,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320240656"/>
-        <c:axId val="320239536"/>
+        <c:axId val="199852624"/>
+        <c:axId val="199853184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320240656"/>
+        <c:axId val="199852624"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2426,7 +2426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320239536"/>
+        <c:crossAx val="199853184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +2434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320239536"/>
+        <c:axId val="199853184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320240656"/>
+        <c:crossAx val="199852624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2515,16 +2515,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,11 +2539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320228336"/>
-        <c:axId val="320226096"/>
+        <c:axId val="199855424"/>
+        <c:axId val="199855984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320228336"/>
+        <c:axId val="199855424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2552,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320226096"/>
+        <c:crossAx val="199855984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2560,7 +2560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320226096"/>
+        <c:axId val="199855984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320228336"/>
+        <c:crossAx val="199855424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2641,16 +2641,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64700000000000002</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,11 +2665,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="320241776"/>
-        <c:axId val="320241216"/>
+        <c:axId val="199858224"/>
+        <c:axId val="199858784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320241776"/>
+        <c:axId val="199858224"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2678,7 +2678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320241216"/>
+        <c:crossAx val="199858784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320241216"/>
+        <c:axId val="199858784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320241776"/>
+        <c:crossAx val="199858224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3758,7 +3758,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3834,40 +3834,40 @@
         <v>40</v>
       </c>
       <c r="C5" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D5" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="E5" s="7">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="F5" s="7">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="G5" s="7">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="H5" s="7">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="I5" s="7">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="J5" s="7">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="K5" s="7">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="L5" s="7">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="M5" s="7">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="N5" s="7">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>37</v>
@@ -3883,44 +3883,44 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10">
-        <v>438</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="27">
         <v>426</v>
       </c>
-      <c r="E6" s="10">
+      <c r="D6" s="27">
         <v>409</v>
       </c>
-      <c r="F6" s="10">
+      <c r="E6" s="27">
         <v>410</v>
       </c>
-      <c r="G6" s="10">
+      <c r="F6" s="27">
         <v>408</v>
       </c>
-      <c r="H6" s="10">
+      <c r="G6" s="27">
         <v>405</v>
       </c>
-      <c r="I6" s="10">
+      <c r="H6" s="27">
         <v>407</v>
       </c>
-      <c r="J6" s="10">
+      <c r="I6" s="27">
         <v>398</v>
       </c>
-      <c r="K6" s="10">
+      <c r="J6" s="27">
         <v>407</v>
       </c>
-      <c r="L6" s="10">
+      <c r="K6" s="27">
         <v>397</v>
       </c>
-      <c r="M6" s="10">
+      <c r="L6" s="27">
         <v>402</v>
       </c>
-      <c r="N6" s="10">
-        <v>413</v>
+      <c r="M6" s="27">
+        <v>408</v>
+      </c>
+      <c r="N6" s="27">
+        <v>395</v>
       </c>
       <c r="O6" s="10">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P6" s="11">
         <v>4.8000000000000001E-2</v>
@@ -3931,44 +3931,44 @@
       <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13">
-        <v>230</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="27">
         <v>249</v>
       </c>
-      <c r="E7" s="13">
+      <c r="D7" s="27">
         <v>237</v>
       </c>
-      <c r="F7" s="13">
+      <c r="E7" s="27">
         <v>203</v>
       </c>
-      <c r="G7" s="13">
+      <c r="F7" s="27">
         <v>178</v>
       </c>
-      <c r="H7" s="13">
+      <c r="G7" s="27">
         <v>168</v>
       </c>
-      <c r="I7" s="13">
+      <c r="H7" s="27">
         <v>167</v>
       </c>
-      <c r="J7" s="13">
+      <c r="I7" s="27">
         <v>172</v>
       </c>
-      <c r="K7" s="13">
+      <c r="J7" s="27">
         <v>175</v>
       </c>
-      <c r="L7" s="13">
+      <c r="K7" s="27">
         <v>171</v>
       </c>
-      <c r="M7" s="13">
+      <c r="L7" s="27">
         <v>160</v>
       </c>
-      <c r="N7" s="13">
-        <v>141</v>
+      <c r="M7" s="27">
+        <v>145</v>
+      </c>
+      <c r="N7" s="27">
+        <v>163</v>
       </c>
       <c r="O7" s="10">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P7" s="11">
         <v>2.1999999999999999E-2</v>
@@ -3979,44 +3979,44 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13">
-        <v>689</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="27">
         <v>701</v>
       </c>
-      <c r="E8" s="13">
+      <c r="D8" s="27">
         <v>642</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E8" s="27">
         <v>763</v>
       </c>
-      <c r="G8" s="13">
+      <c r="F8" s="27">
         <v>733</v>
       </c>
-      <c r="H8" s="13">
+      <c r="G8" s="27">
         <v>714</v>
       </c>
-      <c r="I8" s="13">
+      <c r="H8" s="27">
         <v>692</v>
       </c>
-      <c r="J8" s="13">
+      <c r="I8" s="27">
         <v>667</v>
       </c>
-      <c r="K8" s="13">
+      <c r="J8" s="27">
         <v>758</v>
       </c>
-      <c r="L8" s="13">
+      <c r="K8" s="27">
         <v>705</v>
       </c>
-      <c r="M8" s="13">
-        <v>779</v>
-      </c>
-      <c r="N8" s="13">
-        <v>659</v>
+      <c r="L8" s="27">
+        <v>778</v>
+      </c>
+      <c r="M8" s="27">
+        <v>665</v>
+      </c>
+      <c r="N8" s="27">
+        <v>672</v>
       </c>
       <c r="O8" s="10">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P8" s="11">
         <v>8.4000000000000005E-2</v>
@@ -4027,47 +4027,47 @@
       <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13">
-        <v>1095</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="27">
         <v>1105</v>
       </c>
-      <c r="E9" s="13">
+      <c r="D9" s="27">
         <v>1207</v>
       </c>
-      <c r="F9" s="13">
+      <c r="E9" s="27">
         <v>1081</v>
       </c>
-      <c r="G9" s="13">
+      <c r="F9" s="27">
         <v>1179</v>
       </c>
-      <c r="H9" s="13">
+      <c r="G9" s="27">
         <v>1181</v>
       </c>
-      <c r="I9" s="13">
+      <c r="H9" s="27">
         <v>1188</v>
       </c>
-      <c r="J9" s="13">
+      <c r="I9" s="27">
         <v>1169</v>
       </c>
-      <c r="K9" s="13">
+      <c r="J9" s="27">
         <v>1066</v>
       </c>
-      <c r="L9" s="13">
+      <c r="K9" s="27">
         <v>1227</v>
       </c>
-      <c r="M9" s="13">
-        <v>1023</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1188</v>
+      <c r="L9" s="27">
+        <v>1021</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1214</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1247</v>
       </c>
       <c r="O9" s="10">
-        <v>1143</v>
+        <v>1157</v>
       </c>
       <c r="P9" s="11">
-        <v>0.13500000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -4075,47 +4075,47 @@
       <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13">
-        <v>1640</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="27">
         <v>1592</v>
       </c>
-      <c r="E10" s="13">
+      <c r="D10" s="27">
         <v>1538</v>
       </c>
-      <c r="F10" s="13">
+      <c r="E10" s="27">
         <v>1567</v>
       </c>
-      <c r="G10" s="13">
+      <c r="F10" s="27">
         <v>1558</v>
       </c>
-      <c r="H10" s="13">
+      <c r="G10" s="27">
         <v>1633</v>
       </c>
-      <c r="I10" s="13">
+      <c r="H10" s="27">
         <v>1571</v>
       </c>
-      <c r="J10" s="13">
+      <c r="I10" s="27">
         <v>1589</v>
       </c>
-      <c r="K10" s="13">
+      <c r="J10" s="27">
         <v>1643</v>
       </c>
-      <c r="L10" s="13">
+      <c r="K10" s="27">
         <v>1597</v>
       </c>
-      <c r="M10" s="13">
-        <v>1543</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1595</v>
+      <c r="L10" s="27">
+        <v>1542</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1562</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1497</v>
       </c>
       <c r="O10" s="10">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="P10" s="11">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -4123,47 +4123,47 @@
       <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
-        <v>2578</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="27">
         <v>2491</v>
       </c>
-      <c r="E11" s="13">
+      <c r="D11" s="27">
         <v>2497</v>
       </c>
-      <c r="F11" s="13">
+      <c r="E11" s="27">
         <v>2522</v>
       </c>
-      <c r="G11" s="13">
+      <c r="F11" s="27">
         <v>2572</v>
       </c>
-      <c r="H11" s="13">
+      <c r="G11" s="27">
         <v>2469</v>
       </c>
-      <c r="I11" s="13">
+      <c r="H11" s="27">
         <v>2488</v>
       </c>
-      <c r="J11" s="13">
+      <c r="I11" s="27">
         <v>2519</v>
       </c>
-      <c r="K11" s="13">
+      <c r="J11" s="27">
         <v>2492</v>
       </c>
-      <c r="L11" s="13">
+      <c r="K11" s="27">
         <v>2517</v>
       </c>
-      <c r="M11" s="13">
-        <v>2446</v>
-      </c>
-      <c r="N11" s="13">
-        <v>2515</v>
+      <c r="L11" s="27">
+        <v>2463</v>
+      </c>
+      <c r="M11" s="27">
+        <v>2525</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2636</v>
       </c>
       <c r="O11" s="10">
-        <v>2509</v>
+        <v>2516</v>
       </c>
       <c r="P11" s="11">
-        <v>0.29699999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -4171,44 +4171,44 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="27">
         <v>1043</v>
       </c>
-      <c r="D12" s="13">
-        <v>1043</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="27">
         <v>1077</v>
       </c>
-      <c r="F12" s="13">
+      <c r="E12" s="27">
         <v>1038</v>
       </c>
-      <c r="G12" s="13">
+      <c r="F12" s="27">
         <v>1008</v>
       </c>
-      <c r="H12" s="13">
+      <c r="G12" s="27">
         <v>918</v>
       </c>
-      <c r="I12" s="13">
+      <c r="H12" s="27">
         <v>922</v>
       </c>
-      <c r="J12" s="13">
+      <c r="I12" s="27">
         <v>835</v>
       </c>
-      <c r="K12" s="13">
+      <c r="J12" s="27">
         <v>869</v>
       </c>
-      <c r="L12" s="13">
+      <c r="K12" s="27">
         <v>846</v>
       </c>
-      <c r="M12" s="13">
-        <v>905</v>
-      </c>
-      <c r="N12" s="13">
-        <v>981</v>
+      <c r="L12" s="27">
+        <v>908</v>
+      </c>
+      <c r="M12" s="27">
+        <v>995</v>
+      </c>
+      <c r="N12" s="27">
+        <v>958</v>
       </c>
       <c r="O12" s="10">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="P12" s="11">
         <v>0.113</v>
@@ -4219,44 +4219,44 @@
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="27">
+        <v>476</v>
+      </c>
+      <c r="D13" s="27">
         <v>469</v>
       </c>
-      <c r="D13" s="13">
-        <v>481</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="E13" s="27">
+        <v>470</v>
+      </c>
+      <c r="F13" s="27">
         <v>469</v>
       </c>
-      <c r="F13" s="13">
-        <v>470</v>
-      </c>
-      <c r="G13" s="13">
-        <v>469</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="27">
         <v>439</v>
       </c>
-      <c r="I13" s="13">
+      <c r="H13" s="27">
         <v>418</v>
       </c>
-      <c r="J13" s="13">
+      <c r="I13" s="27">
         <v>371</v>
       </c>
-      <c r="K13" s="13">
+      <c r="J13" s="27">
         <v>356</v>
       </c>
-      <c r="L13" s="13">
+      <c r="K13" s="27">
         <v>371</v>
       </c>
-      <c r="M13" s="13">
-        <v>415</v>
-      </c>
-      <c r="N13" s="13">
-        <v>387</v>
+      <c r="L13" s="27">
+        <v>394</v>
+      </c>
+      <c r="M13" s="27">
+        <v>377</v>
+      </c>
+      <c r="N13" s="27">
+        <v>405</v>
       </c>
       <c r="O13" s="10">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P13" s="11">
         <v>0.05</v>
@@ -4267,47 +4267,47 @@
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13">
-        <v>519</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="27">
         <v>552</v>
       </c>
-      <c r="E14" s="13">
+      <c r="D14" s="27">
         <v>547</v>
       </c>
-      <c r="F14" s="13">
+      <c r="E14" s="27">
         <v>527</v>
       </c>
-      <c r="G14" s="13">
+      <c r="F14" s="27">
         <v>504</v>
       </c>
-      <c r="H14" s="13">
+      <c r="G14" s="27">
         <v>475</v>
       </c>
-      <c r="I14" s="13">
+      <c r="H14" s="27">
         <v>465</v>
       </c>
-      <c r="J14" s="13">
+      <c r="I14" s="27">
         <v>459</v>
       </c>
-      <c r="K14" s="13">
+      <c r="J14" s="27">
         <v>443</v>
       </c>
-      <c r="L14" s="13">
+      <c r="K14" s="27">
         <v>423</v>
       </c>
-      <c r="M14" s="13">
-        <v>408</v>
-      </c>
-      <c r="N14" s="13">
-        <v>416</v>
+      <c r="L14" s="27">
+        <v>405</v>
+      </c>
+      <c r="M14" s="27">
+        <v>397</v>
+      </c>
+      <c r="N14" s="27">
+        <v>403</v>
       </c>
       <c r="O14" s="10">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="P14" s="11">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4315,44 +4315,44 @@
       <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13">
-        <v>80</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="27">
         <v>62</v>
       </c>
-      <c r="E15" s="13">
+      <c r="D15" s="27">
         <v>55</v>
       </c>
-      <c r="F15" s="13">
+      <c r="E15" s="27">
         <v>60</v>
       </c>
-      <c r="G15" s="13">
+      <c r="F15" s="27">
         <v>53</v>
       </c>
-      <c r="H15" s="13">
+      <c r="G15" s="27">
         <v>57</v>
       </c>
-      <c r="I15" s="13">
+      <c r="H15" s="27">
         <v>59</v>
       </c>
-      <c r="J15" s="13">
+      <c r="I15" s="27">
         <v>62</v>
       </c>
-      <c r="K15" s="13">
+      <c r="J15" s="27">
         <v>45</v>
       </c>
-      <c r="L15" s="13">
+      <c r="K15" s="27">
         <v>45</v>
       </c>
-      <c r="M15" s="13">
-        <v>43</v>
-      </c>
-      <c r="N15" s="13">
+      <c r="L15" s="27">
+        <v>42</v>
+      </c>
+      <c r="M15" s="27">
         <v>17</v>
       </c>
+      <c r="N15" s="27">
+        <v>15</v>
+      </c>
       <c r="O15" s="10">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P15" s="11">
         <v>6.0000000000000001E-3</v>
@@ -4363,44 +4363,44 @@
       <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15">
-        <v>8782</v>
-      </c>
-      <c r="D16" s="15">
-        <v>8703</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="C16" s="28">
+        <v>8698</v>
+      </c>
+      <c r="D16" s="28">
         <v>8678</v>
       </c>
-      <c r="F16" s="15">
+      <c r="E16" s="28">
         <v>8639</v>
       </c>
-      <c r="G16" s="15">
+      <c r="F16" s="28">
         <v>8663</v>
       </c>
-      <c r="H16" s="15">
+      <c r="G16" s="28">
         <v>8458</v>
       </c>
-      <c r="I16" s="15">
+      <c r="H16" s="28">
         <v>8377</v>
       </c>
-      <c r="J16" s="15">
+      <c r="I16" s="28">
         <v>8241</v>
       </c>
-      <c r="K16" s="15">
+      <c r="J16" s="28">
         <v>8253</v>
       </c>
-      <c r="L16" s="15">
+      <c r="K16" s="28">
         <v>8300</v>
       </c>
-      <c r="M16" s="15">
-        <v>8123</v>
-      </c>
-      <c r="N16" s="15">
-        <v>8312</v>
+      <c r="L16" s="28">
+        <v>8115</v>
+      </c>
+      <c r="M16" s="28">
+        <v>8304</v>
+      </c>
+      <c r="N16" s="28">
+        <v>8391</v>
       </c>
       <c r="O16" s="15">
-        <v>8460</v>
+        <v>8427</v>
       </c>
       <c r="P16" s="16">
         <v>1</v>
@@ -4423,13 +4423,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="19">
+        <v>2</v>
+      </c>
+      <c r="G17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="H17" s="19">
         <v>2</v>
-      </c>
-      <c r="H17" s="19">
-        <v>3</v>
       </c>
       <c r="I17" s="19">
         <v>2</v>
@@ -4438,22 +4438,22 @@
         <v>2</v>
       </c>
       <c r="K17" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="19">
         <v>3</v>
       </c>
       <c r="M17" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" s="19">
         <v>3</v>
       </c>
       <c r="P17" s="20">
-        <v>0.17899999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10">
         <v>4</v>
@@ -4485,10 +4485,10 @@
       <c r="J18" s="10">
         <v>4</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="21">
         <v>4</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="10">
         <v>4</v>
       </c>
       <c r="M18" s="10">
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="11">
-        <v>0.26900000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4513,19 +4513,19 @@
         <v>10</v>
       </c>
       <c r="D19" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13">
+        <v>9</v>
+      </c>
+      <c r="F19" s="13">
         <v>8</v>
       </c>
-      <c r="F19" s="13">
+      <c r="G19" s="13">
         <v>9</v>
       </c>
-      <c r="G19" s="13">
+      <c r="H19" s="13">
         <v>8</v>
-      </c>
-      <c r="H19" s="13">
-        <v>9</v>
       </c>
       <c r="I19" s="13">
         <v>8</v>
@@ -4533,14 +4533,14 @@
       <c r="J19" s="13">
         <v>8</v>
       </c>
-      <c r="K19" s="13">
-        <v>8</v>
-      </c>
-      <c r="L19" s="10">
+      <c r="K19" s="10">
         <v>7</v>
       </c>
+      <c r="L19" s="13">
+        <v>7</v>
+      </c>
       <c r="M19" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" s="13">
         <v>6</v>
@@ -4549,7 +4549,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="11">
-        <v>0.53500000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="11">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4615,13 +4615,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="15">
+        <v>15</v>
+      </c>
+      <c r="G21" s="15">
         <v>16</v>
       </c>
-      <c r="G21" s="15">
-        <v>15</v>
-      </c>
       <c r="H21" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="15">
         <v>14</v>
@@ -4633,10 +4633,10 @@
         <v>14</v>
       </c>
       <c r="L21" s="15">
+        <v>15</v>
+      </c>
+      <c r="M21" s="15">
         <v>14</v>
-      </c>
-      <c r="M21" s="15">
-        <v>15</v>
       </c>
       <c r="N21" s="15">
         <v>14</v>
@@ -4656,46 +4656,46 @@
         <v>27</v>
       </c>
       <c r="C22" s="24">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D22" s="24">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E22" s="24">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F22" s="24">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G22" s="24">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H22" s="24">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="I22" s="24">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J22" s="24">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="K22" s="24">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L22" s="24">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M22" s="24">
-        <v>469</v>
-      </c>
-      <c r="N22" s="24">
         <v>463</v>
       </c>
+      <c r="N22" s="19">
+        <v>462</v>
+      </c>
       <c r="O22" s="19">
-        <v>478</v>
-      </c>
-      <c r="P22" s="25">
-        <v>0.91800000000000004</v>
+        <v>475</v>
+      </c>
+      <c r="P22" s="20">
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4704,40 +4704,40 @@
         <v>28</v>
       </c>
       <c r="C23" s="13">
+        <v>40</v>
+      </c>
+      <c r="D23" s="13">
+        <v>46</v>
+      </c>
+      <c r="E23" s="13">
         <v>42</v>
       </c>
-      <c r="D23" s="13">
-        <v>40</v>
-      </c>
-      <c r="E23" s="13">
-        <v>46</v>
-      </c>
       <c r="F23" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="13">
         <v>41</v>
       </c>
       <c r="H23" s="13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I23" s="13">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J23" s="13">
         <v>37</v>
       </c>
       <c r="K23" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L23" s="13">
         <v>39</v>
       </c>
       <c r="M23" s="13">
-        <v>39</v>
-      </c>
-      <c r="N23" s="13">
         <v>40</v>
+      </c>
+      <c r="N23" s="10">
+        <v>41</v>
       </c>
       <c r="O23" s="10">
         <v>40</v>
@@ -4779,13 +4779,13 @@
         <v>2</v>
       </c>
       <c r="L24" s="13">
+        <v>3</v>
+      </c>
+      <c r="M24" s="13">
         <v>2</v>
       </c>
-      <c r="M24" s="13">
+      <c r="N24" s="13">
         <v>3</v>
-      </c>
-      <c r="N24" s="13">
-        <v>2</v>
       </c>
       <c r="O24" s="10">
         <v>2</v>
@@ -4848,43 +4848,43 @@
         <v>26</v>
       </c>
       <c r="C26" s="15">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D26" s="15">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E26" s="15">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F26" s="15">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="G26" s="15">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H26" s="15">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="I26" s="15">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="J26" s="15">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="K26" s="15">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L26" s="15">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M26" s="15">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="N26" s="15">
         <v>505</v>
       </c>
       <c r="O26" s="15">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P26" s="16">
         <v>1</v>
@@ -4904,39 +4904,39 @@
         <v>1</v>
       </c>
       <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24">
+        <v>6</v>
+      </c>
+      <c r="G27" s="24">
         <v>1</v>
       </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>6</v>
-      </c>
       <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0</v>
+      </c>
+      <c r="M27" s="24">
         <v>1</v>
       </c>
-      <c r="I27" s="24">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="24">
-        <v>0</v>
-      </c>
-      <c r="N27" s="24">
+      <c r="N27" s="19">
         <v>1</v>
       </c>
       <c r="O27" s="19">
         <v>1</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -4946,46 +4946,46 @@
         <v>28</v>
       </c>
       <c r="C28" s="13">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D28" s="13">
+        <v>54</v>
+      </c>
+      <c r="E28" s="13">
+        <v>51</v>
+      </c>
+      <c r="F28" s="13">
+        <v>43</v>
+      </c>
+      <c r="G28" s="13">
+        <v>51</v>
+      </c>
+      <c r="H28" s="13">
+        <v>52</v>
+      </c>
+      <c r="I28" s="13">
+        <v>57</v>
+      </c>
+      <c r="J28" s="13">
+        <v>58</v>
+      </c>
+      <c r="K28" s="13">
         <v>56</v>
       </c>
-      <c r="E28" s="13">
-        <v>54</v>
-      </c>
-      <c r="F28" s="13">
-        <v>51</v>
-      </c>
-      <c r="G28" s="13">
-        <v>43</v>
-      </c>
-      <c r="H28" s="13">
-        <v>51</v>
-      </c>
-      <c r="I28" s="13">
-        <v>52</v>
-      </c>
-      <c r="J28" s="13">
-        <v>57</v>
-      </c>
-      <c r="K28" s="13">
-        <v>58</v>
-      </c>
       <c r="L28" s="13">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M28" s="13">
-        <v>56</v>
-      </c>
-      <c r="N28" s="13">
         <v>50</v>
       </c>
+      <c r="N28" s="10">
+        <v>49</v>
+      </c>
       <c r="O28" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P28" s="11">
-        <v>0.16900000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4994,46 +4994,46 @@
         <v>29</v>
       </c>
       <c r="C29" s="13">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="13">
         <v>149</v>
       </c>
       <c r="E29" s="13">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F29" s="13">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G29" s="13">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H29" s="13">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I29" s="13">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J29" s="13">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K29" s="13">
         <v>150</v>
       </c>
       <c r="L29" s="13">
+        <v>149</v>
+      </c>
+      <c r="M29" s="13">
         <v>150</v>
       </c>
-      <c r="M29" s="13">
-        <v>126</v>
-      </c>
       <c r="N29" s="13">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O29" s="10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P29" s="11">
-        <v>0.44</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5042,46 +5042,46 @@
         <v>30</v>
       </c>
       <c r="C30" s="13">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D30" s="13">
+        <v>121</v>
+      </c>
+      <c r="E30" s="13">
+        <v>119</v>
+      </c>
+      <c r="F30" s="13">
+        <v>124</v>
+      </c>
+      <c r="G30" s="13">
+        <v>127</v>
+      </c>
+      <c r="H30" s="13">
+        <v>130</v>
+      </c>
+      <c r="I30" s="13">
+        <v>116</v>
+      </c>
+      <c r="J30" s="13">
+        <v>112</v>
+      </c>
+      <c r="K30" s="13">
+        <v>115</v>
+      </c>
+      <c r="L30" s="13">
+        <v>116</v>
+      </c>
+      <c r="M30" s="13">
+        <v>115</v>
+      </c>
+      <c r="N30" s="13">
         <v>120</v>
       </c>
-      <c r="E30" s="13">
-        <v>121</v>
-      </c>
-      <c r="F30" s="13">
-        <v>119</v>
-      </c>
-      <c r="G30" s="13">
-        <v>124</v>
-      </c>
-      <c r="H30" s="13">
-        <v>127</v>
-      </c>
-      <c r="I30" s="13">
-        <v>130</v>
-      </c>
-      <c r="J30" s="13">
-        <v>116</v>
-      </c>
-      <c r="K30" s="13">
-        <v>112</v>
-      </c>
-      <c r="L30" s="13">
-        <v>115</v>
-      </c>
-      <c r="M30" s="13">
-        <v>140</v>
-      </c>
-      <c r="N30" s="13">
-        <v>142</v>
-      </c>
       <c r="O30" s="10">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P30" s="11">
-        <v>0.38800000000000001</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5090,43 +5090,43 @@
         <v>26</v>
       </c>
       <c r="C31" s="15">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D31" s="15">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E31" s="15">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F31" s="15">
+        <v>319</v>
+      </c>
+      <c r="G31" s="15">
+        <v>316</v>
+      </c>
+      <c r="H31" s="15">
+        <v>311</v>
+      </c>
+      <c r="I31" s="15">
+        <v>309</v>
+      </c>
+      <c r="J31" s="15">
+        <v>321</v>
+      </c>
+      <c r="K31" s="15">
         <v>322</v>
-      </c>
-      <c r="G31" s="15">
-        <v>319</v>
-      </c>
-      <c r="H31" s="15">
-        <v>316</v>
-      </c>
-      <c r="I31" s="15">
-        <v>311</v>
-      </c>
-      <c r="J31" s="15">
-        <v>309</v>
-      </c>
-      <c r="K31" s="15">
-        <v>321</v>
       </c>
       <c r="L31" s="15">
         <v>322</v>
       </c>
       <c r="M31" s="15">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N31" s="15">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="O31" s="15">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P31" s="16">
         <v>1</v>
@@ -5140,96 +5140,96 @@
         <v>27</v>
       </c>
       <c r="C32" s="24">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="D32" s="24">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="E32" s="24">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="F32" s="24">
-        <v>619</v>
+        <v>546</v>
       </c>
       <c r="G32" s="24">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H32" s="24">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="I32" s="24">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="J32" s="24">
-        <v>506</v>
+        <v>606</v>
       </c>
       <c r="K32" s="24">
-        <v>606</v>
+        <v>533</v>
       </c>
       <c r="L32" s="24">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="M32" s="24">
-        <v>612</v>
-      </c>
-      <c r="N32" s="24">
-        <v>502</v>
+        <v>508</v>
+      </c>
+      <c r="N32" s="19">
+        <v>536</v>
       </c>
       <c r="O32" s="19">
-        <v>555</v>
-      </c>
-      <c r="P32" s="25">
-        <v>0.35</v>
+        <v>553</v>
+      </c>
+      <c r="P32" s="20">
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="13">
-        <v>943</v>
+        <v>980</v>
       </c>
       <c r="D33" s="13">
-        <v>980</v>
+        <v>1060</v>
       </c>
       <c r="E33" s="13">
-        <v>1060</v>
+        <v>926</v>
       </c>
       <c r="F33" s="13">
-        <v>926</v>
+        <v>1061</v>
       </c>
       <c r="G33" s="13">
-        <v>1061</v>
+        <v>1024</v>
       </c>
       <c r="H33" s="13">
-        <v>1024</v>
+        <v>1057</v>
       </c>
       <c r="I33" s="13">
-        <v>1057</v>
+        <v>1013</v>
       </c>
       <c r="J33" s="13">
-        <v>1013</v>
+        <v>921</v>
       </c>
       <c r="K33" s="13">
-        <v>921</v>
+        <v>1086</v>
       </c>
       <c r="L33" s="13">
-        <v>1086</v>
+        <v>863</v>
       </c>
       <c r="M33" s="13">
-        <v>863</v>
-      </c>
-      <c r="N33" s="13">
-        <v>1057</v>
+        <v>1053</v>
+      </c>
+      <c r="N33" s="10">
+        <v>1119</v>
       </c>
       <c r="O33" s="10">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="P33" s="11">
-        <v>0.63200000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5238,40 +5238,40 @@
         <v>29</v>
       </c>
       <c r="C34" s="13">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" s="13">
+        <v>22</v>
+      </c>
+      <c r="E34" s="13">
+        <v>24</v>
+      </c>
+      <c r="F34" s="13">
+        <v>25</v>
+      </c>
+      <c r="G34" s="13">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13">
+        <v>24</v>
+      </c>
+      <c r="I34" s="13">
+        <v>22</v>
+      </c>
+      <c r="J34" s="13">
+        <v>28</v>
+      </c>
+      <c r="K34" s="13">
+        <v>22</v>
+      </c>
+      <c r="L34" s="13">
+        <v>26</v>
+      </c>
+      <c r="M34" s="13">
         <v>27</v>
       </c>
-      <c r="E34" s="13">
+      <c r="N34" s="13">
         <v>22</v>
-      </c>
-      <c r="F34" s="13">
-        <v>24</v>
-      </c>
-      <c r="G34" s="13">
-        <v>25</v>
-      </c>
-      <c r="H34" s="13">
-        <v>18</v>
-      </c>
-      <c r="I34" s="13">
-        <v>24</v>
-      </c>
-      <c r="J34" s="13">
-        <v>22</v>
-      </c>
-      <c r="K34" s="13">
-        <v>28</v>
-      </c>
-      <c r="L34" s="13">
-        <v>22</v>
-      </c>
-      <c r="M34" s="13">
-        <v>26</v>
-      </c>
-      <c r="N34" s="13">
-        <v>27</v>
       </c>
       <c r="O34" s="10">
         <v>24</v>
@@ -5286,19 +5286,19 @@
         <v>30</v>
       </c>
       <c r="C35" s="13">
+        <v>5</v>
+      </c>
+      <c r="D35" s="13">
         <v>4</v>
       </c>
-      <c r="D35" s="13">
+      <c r="E35" s="13">
         <v>5</v>
-      </c>
-      <c r="E35" s="13">
-        <v>4</v>
       </c>
       <c r="F35" s="13">
         <v>5</v>
       </c>
       <c r="G35" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" s="13">
         <v>4</v>
@@ -5313,10 +5313,10 @@
         <v>4</v>
       </c>
       <c r="L35" s="13">
+        <v>5</v>
+      </c>
+      <c r="M35" s="13">
         <v>4</v>
-      </c>
-      <c r="M35" s="13">
-        <v>5</v>
       </c>
       <c r="N35" s="13">
         <v>4</v>
@@ -5334,43 +5334,43 @@
         <v>26</v>
       </c>
       <c r="C36" s="15">
-        <v>1524</v>
+        <v>1605</v>
       </c>
       <c r="D36" s="15">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="E36" s="15">
-        <v>1611</v>
+        <v>1574</v>
       </c>
       <c r="F36" s="15">
-        <v>1574</v>
+        <v>1636</v>
       </c>
       <c r="G36" s="15">
-        <v>1636</v>
+        <v>1593</v>
       </c>
       <c r="H36" s="15">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="I36" s="15">
-        <v>1601</v>
+        <v>1545</v>
       </c>
       <c r="J36" s="15">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="K36" s="15">
-        <v>1559</v>
+        <v>1645</v>
       </c>
       <c r="L36" s="15">
-        <v>1645</v>
+        <v>1506</v>
       </c>
       <c r="M36" s="15">
-        <v>1506</v>
+        <v>1591</v>
       </c>
       <c r="N36" s="15">
-        <v>1590</v>
+        <v>1681</v>
       </c>
       <c r="O36" s="15">
-        <v>1583</v>
+        <v>1596</v>
       </c>
       <c r="P36" s="16">
         <v>1</v>
@@ -5384,31 +5384,31 @@
         <v>27</v>
       </c>
       <c r="C37" s="24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="24">
         <v>21</v>
       </c>
       <c r="F37" s="24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H37" s="24">
         <v>19</v>
       </c>
       <c r="I37" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" s="24">
         <v>18</v>
       </c>
       <c r="K37" s="24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L37" s="24">
         <v>19</v>
@@ -5416,14 +5416,14 @@
       <c r="M37" s="24">
         <v>19</v>
       </c>
-      <c r="N37" s="24">
-        <v>19</v>
+      <c r="N37" s="19">
+        <v>18</v>
       </c>
       <c r="O37" s="19">
         <v>20</v>
       </c>
-      <c r="P37" s="25">
-        <v>0.19</v>
+      <c r="P37" s="20">
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5432,46 +5432,46 @@
         <v>28</v>
       </c>
       <c r="C38" s="13">
+        <v>79</v>
+      </c>
+      <c r="D38" s="13">
+        <v>74</v>
+      </c>
+      <c r="E38" s="13">
+        <v>78</v>
+      </c>
+      <c r="F38" s="13">
         <v>75</v>
       </c>
-      <c r="D38" s="13">
-        <v>79</v>
-      </c>
-      <c r="E38" s="13">
-        <v>74</v>
-      </c>
-      <c r="F38" s="13">
-        <v>78</v>
-      </c>
       <c r="G38" s="13">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H38" s="13">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" s="13">
         <v>68</v>
       </c>
       <c r="J38" s="13">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K38" s="13">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L38" s="13">
+        <v>63</v>
+      </c>
+      <c r="M38" s="13">
         <v>64</v>
       </c>
-      <c r="M38" s="13">
+      <c r="N38" s="10">
         <v>63</v>
       </c>
-      <c r="N38" s="13">
-        <v>64</v>
-      </c>
       <c r="O38" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="11">
-        <v>0.67500000000000004</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5480,25 +5480,25 @@
         <v>29</v>
       </c>
       <c r="C39" s="13">
+        <v>14</v>
+      </c>
+      <c r="D39" s="13">
         <v>13</v>
       </c>
-      <c r="D39" s="13">
+      <c r="E39" s="13">
         <v>14</v>
       </c>
-      <c r="E39" s="13">
+      <c r="F39" s="13">
+        <v>16</v>
+      </c>
+      <c r="G39" s="13">
+        <v>14</v>
+      </c>
+      <c r="H39" s="13">
         <v>13</v>
       </c>
-      <c r="F39" s="13">
+      <c r="I39" s="13">
         <v>14</v>
-      </c>
-      <c r="G39" s="13">
-        <v>16</v>
-      </c>
-      <c r="H39" s="13">
-        <v>14</v>
-      </c>
-      <c r="I39" s="13">
-        <v>13</v>
       </c>
       <c r="J39" s="13">
         <v>14</v>
@@ -5519,7 +5519,7 @@
         <v>14</v>
       </c>
       <c r="P39" s="11">
-        <v>0.13300000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5528,10 +5528,10 @@
         <v>30</v>
       </c>
       <c r="C40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="13">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5576,43 +5576,43 @@
         <v>26</v>
       </c>
       <c r="C41" s="15">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D41" s="15">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E41" s="15">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F41" s="15">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G41" s="15">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H41" s="15">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I41" s="15">
         <v>100</v>
       </c>
       <c r="J41" s="15">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K41" s="15">
         <v>97</v>
       </c>
       <c r="L41" s="15">
+        <v>96</v>
+      </c>
+      <c r="M41" s="15">
         <v>97</v>
       </c>
-      <c r="M41" s="15">
-        <v>96</v>
-      </c>
       <c r="N41" s="15">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O41" s="15">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P41" s="16">
         <v>1</v>
@@ -5626,46 +5626,46 @@
         <v>27</v>
       </c>
       <c r="C42" s="24">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D42" s="24">
+        <v>33</v>
+      </c>
+      <c r="E42" s="24">
+        <v>35</v>
+      </c>
+      <c r="F42" s="24">
+        <v>37</v>
+      </c>
+      <c r="G42" s="24">
         <v>36</v>
       </c>
-      <c r="E42" s="24">
+      <c r="H42" s="24">
+        <v>35</v>
+      </c>
+      <c r="I42" s="24">
+        <v>32</v>
+      </c>
+      <c r="J42" s="24">
+        <v>31</v>
+      </c>
+      <c r="K42" s="24">
+        <v>28</v>
+      </c>
+      <c r="L42" s="24">
+        <v>32</v>
+      </c>
+      <c r="M42" s="24">
         <v>33</v>
       </c>
-      <c r="F42" s="24">
-        <v>35</v>
-      </c>
-      <c r="G42" s="24">
-        <v>37</v>
-      </c>
-      <c r="H42" s="24">
-        <v>36</v>
-      </c>
-      <c r="I42" s="24">
-        <v>35</v>
-      </c>
-      <c r="J42" s="24">
-        <v>32</v>
-      </c>
-      <c r="K42" s="24">
-        <v>31</v>
-      </c>
-      <c r="L42" s="24">
+      <c r="N42" s="19">
         <v>28</v>
       </c>
-      <c r="M42" s="24">
-        <v>32</v>
-      </c>
-      <c r="N42" s="24">
+      <c r="O42" s="19">
         <v>33</v>
       </c>
-      <c r="O42" s="19">
-        <v>34</v>
-      </c>
-      <c r="P42" s="25">
-        <v>0.215</v>
+      <c r="P42" s="20">
+        <v>0.21</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5674,46 +5674,46 @@
         <v>28</v>
       </c>
       <c r="C43" s="13">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D43" s="13">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E43" s="13">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="13">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G43" s="13">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="13">
         <v>77</v>
       </c>
       <c r="I43" s="13">
+        <v>80</v>
+      </c>
+      <c r="J43" s="13">
         <v>77</v>
-      </c>
-      <c r="J43" s="13">
-        <v>80</v>
       </c>
       <c r="K43" s="13">
         <v>77</v>
       </c>
       <c r="L43" s="13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M43" s="13">
-        <v>76</v>
-      </c>
-      <c r="N43" s="13">
         <v>74</v>
       </c>
+      <c r="N43" s="10">
+        <v>71</v>
+      </c>
       <c r="O43" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P43" s="11">
-        <v>0.48</v>
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5722,34 +5722,34 @@
         <v>29</v>
       </c>
       <c r="C44" s="13">
+        <v>40</v>
+      </c>
+      <c r="D44" s="13">
+        <v>35</v>
+      </c>
+      <c r="E44" s="13">
+        <v>39</v>
+      </c>
+      <c r="F44" s="13">
+        <v>36</v>
+      </c>
+      <c r="G44" s="13">
         <v>38</v>
       </c>
-      <c r="D44" s="13">
-        <v>40</v>
-      </c>
-      <c r="E44" s="13">
+      <c r="H44" s="13">
+        <v>36</v>
+      </c>
+      <c r="I44" s="13">
         <v>35</v>
-      </c>
-      <c r="F44" s="13">
-        <v>39</v>
-      </c>
-      <c r="G44" s="13">
-        <v>36</v>
-      </c>
-      <c r="H44" s="13">
-        <v>38</v>
-      </c>
-      <c r="I44" s="13">
-        <v>36</v>
       </c>
       <c r="J44" s="13">
         <v>35</v>
       </c>
       <c r="K44" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L44" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M44" s="13">
         <v>34</v>
@@ -5761,7 +5761,7 @@
         <v>36</v>
       </c>
       <c r="P44" s="11">
-        <v>0.22700000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5770,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" s="13">
         <v>14</v>
@@ -5782,19 +5782,19 @@
         <v>14</v>
       </c>
       <c r="G45" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="13">
         <v>13</v>
       </c>
       <c r="I45" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J45" s="13">
         <v>10</v>
       </c>
       <c r="K45" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L45" s="13">
         <v>13</v>
@@ -5806,10 +5806,10 @@
         <v>13</v>
       </c>
       <c r="O45" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P45" s="11">
-        <v>7.8E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5818,43 +5818,43 @@
         <v>26</v>
       </c>
       <c r="C46" s="15">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D46" s="15">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E46" s="15">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F46" s="15">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46" s="15">
         <v>164</v>
       </c>
       <c r="H46" s="15">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I46" s="15">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J46" s="15">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K46" s="15">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L46" s="15">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M46" s="15">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N46" s="15">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O46" s="15">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P46" s="16">
         <v>1</v>
@@ -5900,14 +5900,14 @@
       <c r="M47" s="24">
         <v>3</v>
       </c>
-      <c r="N47" s="24">
-        <v>3</v>
+      <c r="N47" s="19">
+        <v>2</v>
       </c>
       <c r="O47" s="19">
         <v>3</v>
       </c>
-      <c r="P47" s="25">
-        <v>4.2000000000000003E-2</v>
+      <c r="P47" s="20">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5919,22 +5919,22 @@
         <v>27</v>
       </c>
       <c r="D48" s="13">
+        <v>26</v>
+      </c>
+      <c r="E48" s="13">
+        <v>24</v>
+      </c>
+      <c r="F48" s="13">
+        <v>25</v>
+      </c>
+      <c r="G48" s="13">
         <v>27</v>
       </c>
-      <c r="E48" s="13">
-        <v>26</v>
-      </c>
-      <c r="F48" s="13">
-        <v>24</v>
-      </c>
-      <c r="G48" s="13">
-        <v>25</v>
-      </c>
       <c r="H48" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I48" s="13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J48" s="13">
         <v>29</v>
@@ -5943,19 +5943,19 @@
         <v>29</v>
       </c>
       <c r="L48" s="13">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M48" s="13">
-        <v>27</v>
-      </c>
-      <c r="N48" s="13">
         <v>25</v>
+      </c>
+      <c r="N48" s="10">
+        <v>24</v>
       </c>
       <c r="O48" s="10">
         <v>27</v>
       </c>
       <c r="P48" s="11">
-        <v>0.41</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5964,46 +5964,46 @@
         <v>29</v>
       </c>
       <c r="C49" s="13">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="13">
+        <v>42</v>
+      </c>
+      <c r="F49" s="13">
         <v>40</v>
       </c>
-      <c r="F49" s="13">
-        <v>42</v>
-      </c>
       <c r="G49" s="13">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H49" s="13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I49" s="13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J49" s="13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K49" s="13">
         <v>30</v>
       </c>
       <c r="L49" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N49" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O49" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P49" s="11">
-        <v>0.54600000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6060,31 +6060,31 @@
         <v>26</v>
       </c>
       <c r="C51" s="15">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="15">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51" s="15">
         <v>69</v>
       </c>
       <c r="F51" s="15">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G51" s="15">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I51" s="15">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" s="15">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K51" s="15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="15">
         <v>61</v>
@@ -6096,7 +6096,7 @@
         <v>61</v>
       </c>
       <c r="O51" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P51" s="16">
         <v>1</v>
@@ -6113,43 +6113,43 @@
         <v>0</v>
       </c>
       <c r="D52" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0</v>
+      </c>
+      <c r="H52" s="24">
+        <v>4</v>
+      </c>
+      <c r="I52" s="24">
         <v>1</v>
       </c>
-      <c r="F52" s="24">
-        <v>0</v>
-      </c>
-      <c r="G52" s="24">
-        <v>0</v>
-      </c>
-      <c r="H52" s="24">
-        <v>0</v>
-      </c>
-      <c r="I52" s="24">
-        <v>4</v>
-      </c>
       <c r="J52" s="24">
+        <v>0</v>
+      </c>
+      <c r="K52" s="24">
         <v>1</v>
       </c>
-      <c r="K52" s="24">
-        <v>0</v>
-      </c>
       <c r="L52" s="24">
+        <v>0</v>
+      </c>
+      <c r="M52" s="24">
         <v>1</v>
       </c>
-      <c r="M52" s="24">
-        <v>0</v>
-      </c>
-      <c r="N52" s="24">
-        <v>1</v>
+      <c r="N52" s="19">
+        <v>0</v>
       </c>
       <c r="O52" s="19">
         <v>1</v>
       </c>
-      <c r="P52" s="25">
-        <v>2E-3</v>
+      <c r="P52" s="20">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6158,40 +6158,40 @@
         <v>28</v>
       </c>
       <c r="C53" s="13">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D53" s="13">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E53" s="13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F53" s="13">
+        <v>132</v>
+      </c>
+      <c r="G53" s="13">
+        <v>130</v>
+      </c>
+      <c r="H53" s="13">
+        <v>129</v>
+      </c>
+      <c r="I53" s="13">
+        <v>133</v>
+      </c>
+      <c r="J53" s="13">
+        <v>135</v>
+      </c>
+      <c r="K53" s="13">
         <v>127</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
+        <v>129</v>
+      </c>
+      <c r="M53" s="13">
         <v>132</v>
       </c>
-      <c r="H53" s="13">
-        <v>130</v>
-      </c>
-      <c r="I53" s="13">
-        <v>129</v>
-      </c>
-      <c r="J53" s="13">
-        <v>133</v>
-      </c>
-      <c r="K53" s="13">
-        <v>135</v>
-      </c>
-      <c r="L53" s="13">
-        <v>127</v>
-      </c>
-      <c r="M53" s="13">
-        <v>129</v>
-      </c>
-      <c r="N53" s="13">
-        <v>133</v>
+      <c r="N53" s="10">
+        <v>122</v>
       </c>
       <c r="O53" s="10">
         <v>128</v>
@@ -6206,46 +6206,46 @@
         <v>29</v>
       </c>
       <c r="C54" s="13">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D54" s="13">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E54" s="13">
+        <v>271</v>
+      </c>
+      <c r="F54" s="13">
+        <v>266</v>
+      </c>
+      <c r="G54" s="13">
+        <v>270</v>
+      </c>
+      <c r="H54" s="13">
+        <v>252</v>
+      </c>
+      <c r="I54" s="13">
+        <v>248</v>
+      </c>
+      <c r="J54" s="13">
         <v>246</v>
       </c>
-      <c r="F54" s="13">
-        <v>271</v>
-      </c>
-      <c r="G54" s="13">
-        <v>266</v>
-      </c>
-      <c r="H54" s="13">
-        <v>270</v>
-      </c>
-      <c r="I54" s="13">
-        <v>252</v>
-      </c>
-      <c r="J54" s="13">
-        <v>248</v>
-      </c>
       <c r="K54" s="13">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L54" s="13">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M54" s="13">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="N54" s="13">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="O54" s="10">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P54" s="11">
-        <v>0.64700000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6254,46 +6254,46 @@
         <v>30</v>
       </c>
       <c r="C55" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55" s="13">
+        <v>11</v>
+      </c>
+      <c r="F55" s="13">
         <v>10</v>
       </c>
-      <c r="F55" s="13">
+      <c r="G55" s="13">
         <v>11</v>
-      </c>
-      <c r="G55" s="13">
-        <v>10</v>
       </c>
       <c r="H55" s="13">
         <v>11</v>
       </c>
       <c r="I55" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J55" s="13">
         <v>10</v>
       </c>
       <c r="K55" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M55" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N55" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O55" s="10">
         <v>11</v>
       </c>
       <c r="P55" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6302,40 +6302,40 @@
         <v>26</v>
       </c>
       <c r="C56" s="15">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="D56" s="15">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E56" s="15">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="F56" s="15">
         <v>409</v>
       </c>
       <c r="G56" s="15">
+        <v>410</v>
+      </c>
+      <c r="H56" s="15">
+        <v>396</v>
+      </c>
+      <c r="I56" s="15">
+        <v>392</v>
+      </c>
+      <c r="J56" s="15">
+        <v>391</v>
+      </c>
+      <c r="K56" s="15">
+        <v>395</v>
+      </c>
+      <c r="L56" s="15">
+        <v>402</v>
+      </c>
+      <c r="M56" s="15">
         <v>409</v>
       </c>
-      <c r="H56" s="15">
-        <v>410</v>
-      </c>
-      <c r="I56" s="15">
-        <v>396</v>
-      </c>
-      <c r="J56" s="15">
-        <v>392</v>
-      </c>
-      <c r="K56" s="15">
-        <v>391</v>
-      </c>
-      <c r="L56" s="15">
-        <v>395</v>
-      </c>
-      <c r="M56" s="15">
-        <v>403</v>
-      </c>
       <c r="N56" s="15">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="O56" s="15">
         <v>397</v>
@@ -6352,25 +6352,25 @@
         <v>27</v>
       </c>
       <c r="C57" s="24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57" s="24">
+        <v>16</v>
+      </c>
+      <c r="F57" s="24">
         <v>13</v>
       </c>
-      <c r="F57" s="24">
-        <v>16</v>
-      </c>
       <c r="G57" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="24">
         <v>12</v>
       </c>
       <c r="I57" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J57" s="24">
         <v>14</v>
@@ -6379,18 +6379,18 @@
         <v>14</v>
       </c>
       <c r="L57" s="24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57" s="24">
         <v>13</v>
       </c>
-      <c r="N57" s="24">
-        <v>13</v>
+      <c r="N57" s="19">
+        <v>11</v>
       </c>
       <c r="O57" s="19">
         <v>13</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="20">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -6400,46 +6400,46 @@
         <v>28</v>
       </c>
       <c r="C58" s="13">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D58" s="13">
         <v>64</v>
       </c>
       <c r="E58" s="13">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F58" s="13">
         <v>66</v>
       </c>
       <c r="G58" s="13">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H58" s="13">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I58" s="13">
+        <v>104</v>
+      </c>
+      <c r="J58" s="13">
+        <v>114</v>
+      </c>
+      <c r="K58" s="13">
+        <v>105</v>
+      </c>
+      <c r="L58" s="13">
         <v>91</v>
       </c>
-      <c r="J58" s="13">
-        <v>104</v>
-      </c>
-      <c r="K58" s="13">
-        <v>114</v>
-      </c>
-      <c r="L58" s="13">
-        <v>105</v>
-      </c>
       <c r="M58" s="13">
-        <v>91</v>
-      </c>
-      <c r="N58" s="13">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="N58" s="10">
+        <v>70</v>
       </c>
       <c r="O58" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P58" s="11">
-        <v>7.6999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6448,46 +6448,46 @@
         <v>29</v>
       </c>
       <c r="C59" s="13">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="D59" s="13">
-        <v>1057</v>
+        <v>1020</v>
       </c>
       <c r="E59" s="13">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="F59" s="13">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G59" s="13">
-        <v>1022</v>
+        <v>954</v>
       </c>
       <c r="H59" s="13">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="I59" s="13">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="J59" s="13">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="K59" s="13">
-        <v>897</v>
+        <v>856</v>
       </c>
       <c r="L59" s="13">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="M59" s="13">
-        <v>859</v>
+        <v>946</v>
       </c>
       <c r="N59" s="13">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="O59" s="10">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="P59" s="11">
-        <v>0.90600000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6496,28 +6496,28 @@
         <v>30</v>
       </c>
       <c r="C60" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D60" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F60" s="13">
         <v>6</v>
       </c>
       <c r="G60" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H60" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I60" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" s="13">
         <v>1</v>
@@ -6526,10 +6526,10 @@
         <v>1</v>
       </c>
       <c r="M60" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O60" s="10">
         <v>5</v>
@@ -6544,43 +6544,43 @@
         <v>26</v>
       </c>
       <c r="C61" s="15">
-        <v>1174</v>
+        <v>1145</v>
       </c>
       <c r="D61" s="15">
-        <v>1145</v>
+        <v>1110</v>
       </c>
       <c r="E61" s="15">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F61" s="15">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="G61" s="15">
-        <v>1107</v>
+        <v>1040</v>
       </c>
       <c r="H61" s="15">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="I61" s="15">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="J61" s="15">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="K61" s="15">
-        <v>1026</v>
+        <v>977</v>
       </c>
       <c r="L61" s="15">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="M61" s="15">
-        <v>964</v>
+        <v>1036</v>
       </c>
       <c r="N61" s="15">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="O61" s="15">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="P61" s="16">
         <v>1</v>
@@ -6626,13 +6626,13 @@
       <c r="M62" s="24">
         <v>0</v>
       </c>
-      <c r="N62" s="24">
+      <c r="N62" s="19">
         <v>0</v>
       </c>
       <c r="O62" s="19">
         <v>0</v>
       </c>
-      <c r="P62" s="25">
+      <c r="P62" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6642,10 +6642,10 @@
         <v>28</v>
       </c>
       <c r="C63" s="13">
+        <v>4</v>
+      </c>
+      <c r="D63" s="13">
         <v>3</v>
-      </c>
-      <c r="D63" s="13">
-        <v>4</v>
       </c>
       <c r="E63" s="13">
         <v>3</v>
@@ -6674,14 +6674,14 @@
       <c r="M63" s="13">
         <v>3</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="10">
         <v>3</v>
       </c>
       <c r="O63" s="10">
         <v>3</v>
       </c>
       <c r="P63" s="11">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6696,16 +6696,16 @@
         <v>2</v>
       </c>
       <c r="E64" s="13">
+        <v>3</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13">
         <v>2</v>
       </c>
-      <c r="F64" s="13">
-        <v>3</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="H64" s="13">
         <v>1</v>
-      </c>
-      <c r="H64" s="13">
-        <v>2</v>
       </c>
       <c r="I64" s="13">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="P64" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6741,43 +6741,43 @@
         <v>73</v>
       </c>
       <c r="D65" s="13">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E65" s="13">
+        <v>69</v>
+      </c>
+      <c r="F65" s="13">
         <v>68</v>
       </c>
-      <c r="F65" s="13">
-        <v>69</v>
-      </c>
       <c r="G65" s="13">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H65" s="13">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I65" s="13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J65" s="13">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K65" s="13">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L65" s="13">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M65" s="13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N65" s="13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O65" s="10">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P65" s="11">
-        <v>0.93300000000000005</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6789,40 +6789,40 @@
         <v>79</v>
       </c>
       <c r="D66" s="15">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E66" s="15">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F66" s="15">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G66" s="15">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H66" s="15">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I66" s="15">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J66" s="15">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K66" s="15">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L66" s="15">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M66" s="15">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N66" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O66" s="15">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P66" s="16">
         <v>1</v>
@@ -6836,46 +6836,46 @@
         <v>27</v>
       </c>
       <c r="C67" s="24">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D67" s="24">
+        <v>48</v>
+      </c>
+      <c r="E67" s="24">
+        <v>49</v>
+      </c>
+      <c r="F67" s="24">
         <v>46</v>
-      </c>
-      <c r="E67" s="24">
-        <v>48</v>
-      </c>
-      <c r="F67" s="24">
-        <v>49</v>
       </c>
       <c r="G67" s="24">
         <v>46</v>
       </c>
       <c r="H67" s="24">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I67" s="24">
         <v>43</v>
       </c>
       <c r="J67" s="24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67" s="24">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L67" s="24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M67" s="24">
         <v>39</v>
       </c>
-      <c r="N67" s="24">
-        <v>39</v>
+      <c r="N67" s="19">
+        <v>41</v>
       </c>
       <c r="O67" s="19">
-        <v>44</v>
-      </c>
-      <c r="P67" s="25">
-        <v>0.105</v>
+        <v>43</v>
+      </c>
+      <c r="P67" s="20">
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -6884,40 +6884,40 @@
         <v>28</v>
       </c>
       <c r="C68" s="13">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D68" s="13">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E68" s="13">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F68" s="13">
         <v>121</v>
       </c>
       <c r="G68" s="13">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H68" s="13">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I68" s="13">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J68" s="13">
         <v>119</v>
       </c>
       <c r="K68" s="13">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L68" s="13">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M68" s="13">
-        <v>124</v>
-      </c>
-      <c r="N68" s="13">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="N68" s="10">
+        <v>118</v>
       </c>
       <c r="O68" s="10">
         <v>117</v>
@@ -6932,46 +6932,46 @@
         <v>29</v>
       </c>
       <c r="C69" s="13">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D69" s="13">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E69" s="13">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F69" s="13">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G69" s="13">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H69" s="13">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I69" s="13">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J69" s="13">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K69" s="13">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="L69" s="13">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M69" s="13">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="N69" s="13">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O69" s="10">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P69" s="11">
-        <v>0.41599999999999998</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -6980,46 +6980,46 @@
         <v>30</v>
       </c>
       <c r="C70" s="13">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D70" s="13">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70" s="13">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70" s="13">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G70" s="13">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H70" s="13">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I70" s="13">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J70" s="13">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K70" s="13">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L70" s="13">
+        <v>64</v>
+      </c>
+      <c r="M70" s="13">
         <v>66</v>
       </c>
-      <c r="M70" s="13">
-        <v>63</v>
-      </c>
       <c r="N70" s="13">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O70" s="10">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P70" s="11">
-        <v>0.20100000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7028,43 +7028,43 @@
         <v>26</v>
       </c>
       <c r="C71" s="15">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D71" s="15">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="E71" s="15">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="F71" s="15">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G71" s="15">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H71" s="15">
+        <v>429</v>
+      </c>
+      <c r="I71" s="15">
+        <v>424</v>
+      </c>
+      <c r="J71" s="15">
+        <v>417</v>
+      </c>
+      <c r="K71" s="15">
+        <v>424</v>
+      </c>
+      <c r="L71" s="15">
+        <v>411</v>
+      </c>
+      <c r="M71" s="15">
         <v>422</v>
       </c>
-      <c r="I71" s="15">
-        <v>429</v>
-      </c>
-      <c r="J71" s="15">
-        <v>424</v>
-      </c>
-      <c r="K71" s="15">
-        <v>417</v>
-      </c>
-      <c r="L71" s="15">
-        <v>424</v>
-      </c>
-      <c r="M71" s="15">
-        <v>412</v>
-      </c>
       <c r="N71" s="15">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O71" s="15">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P71" s="16">
         <v>1</v>
@@ -7110,13 +7110,13 @@
       <c r="M72" s="24">
         <v>0</v>
       </c>
-      <c r="N72" s="24">
+      <c r="N72" s="19">
         <v>0</v>
       </c>
       <c r="O72" s="19">
         <v>0</v>
       </c>
-      <c r="P72" s="25">
+      <c r="P72" s="20">
         <v>0</v>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="13">
         <v>1</v>
@@ -7150,22 +7150,22 @@
         <v>1</v>
       </c>
       <c r="K73" s="13">
+        <v>0</v>
+      </c>
+      <c r="L73" s="13">
+        <v>0</v>
+      </c>
+      <c r="M73" s="13">
         <v>1</v>
       </c>
-      <c r="L73" s="13">
-        <v>0</v>
-      </c>
-      <c r="M73" s="13">
-        <v>0</v>
-      </c>
-      <c r="N73" s="13">
-        <v>1</v>
+      <c r="N73" s="10">
+        <v>0</v>
       </c>
       <c r="O73" s="10">
         <v>1</v>
       </c>
       <c r="P73" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="13">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="11">
-        <v>3.9E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -7228,19 +7228,19 @@
         <v>18</v>
       </c>
       <c r="E75" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75" s="13">
         <v>17</v>
       </c>
       <c r="G75" s="13">
+        <v>19</v>
+      </c>
+      <c r="H75" s="13">
         <v>17</v>
       </c>
-      <c r="H75" s="13">
-        <v>19</v>
-      </c>
       <c r="I75" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J75" s="13">
         <v>14</v>
@@ -7255,13 +7255,13 @@
         <v>14</v>
       </c>
       <c r="N75" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O75" s="10">
         <v>16</v>
       </c>
       <c r="P75" s="11">
-        <v>0.93200000000000005</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7279,31 +7279,31 @@
         <v>19</v>
       </c>
       <c r="F76" s="15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="15">
+        <v>20</v>
+      </c>
+      <c r="H76" s="15">
         <v>18</v>
       </c>
-      <c r="H76" s="15">
-        <v>20</v>
-      </c>
       <c r="I76" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J76" s="15">
+        <v>15</v>
+      </c>
+      <c r="K76" s="15">
         <v>16</v>
       </c>
-      <c r="K76" s="15">
+      <c r="L76" s="15">
         <v>15</v>
-      </c>
-      <c r="L76" s="15">
-        <v>16</v>
       </c>
       <c r="M76" s="15">
         <v>15</v>
       </c>
       <c r="N76" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O76" s="15">
         <v>17</v>
@@ -7320,45 +7320,45 @@
         <v>27</v>
       </c>
       <c r="C77" s="24">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D77" s="24">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E77" s="24">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F77" s="24">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G77" s="24">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H77" s="24">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I77" s="24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J77" s="24">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K77" s="24">
+        <v>85</v>
+      </c>
+      <c r="L77" s="24">
+        <v>72</v>
+      </c>
+      <c r="M77" s="24">
+        <v>59</v>
+      </c>
+      <c r="N77" s="19">
+        <v>50</v>
+      </c>
+      <c r="O77" s="19">
         <v>73</v>
       </c>
-      <c r="L77" s="24">
-        <v>85</v>
-      </c>
-      <c r="M77" s="24">
-        <v>72</v>
-      </c>
-      <c r="N77" s="24">
-        <v>58</v>
-      </c>
-      <c r="O77" s="19">
-        <v>76</v>
-      </c>
-      <c r="P77" s="25">
+      <c r="P77" s="20">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -7368,46 +7368,46 @@
         <v>28</v>
       </c>
       <c r="C78" s="13">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="D78" s="13">
-        <v>1025</v>
+        <v>964</v>
       </c>
       <c r="E78" s="13">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="F78" s="13">
-        <v>995</v>
+        <v>958</v>
       </c>
       <c r="G78" s="13">
-        <v>958</v>
+        <v>1083</v>
       </c>
       <c r="H78" s="13">
-        <v>1083</v>
+        <v>968</v>
       </c>
       <c r="I78" s="13">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="J78" s="13">
-        <v>974</v>
+        <v>1011</v>
       </c>
       <c r="K78" s="13">
-        <v>1011</v>
+        <v>976</v>
       </c>
       <c r="L78" s="13">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="M78" s="13">
-        <v>964</v>
-      </c>
-      <c r="N78" s="13">
-        <v>997</v>
+        <v>994</v>
+      </c>
+      <c r="N78" s="10">
+        <v>923</v>
       </c>
       <c r="O78" s="10">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="P78" s="11">
-        <v>0.307</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -7416,46 +7416,46 @@
         <v>29</v>
       </c>
       <c r="C79" s="13">
-        <v>1665</v>
+        <v>1632</v>
       </c>
       <c r="D79" s="13">
-        <v>1632</v>
+        <v>1723</v>
       </c>
       <c r="E79" s="13">
-        <v>1723</v>
+        <v>1666</v>
       </c>
       <c r="F79" s="13">
+        <v>1697</v>
+      </c>
+      <c r="G79" s="13">
+        <v>1583</v>
+      </c>
+      <c r="H79" s="13">
+        <v>1648</v>
+      </c>
+      <c r="I79" s="13">
+        <v>1642</v>
+      </c>
+      <c r="J79" s="13">
+        <v>1625</v>
+      </c>
+      <c r="K79" s="13">
+        <v>1657</v>
+      </c>
+      <c r="L79" s="13">
+        <v>1662</v>
+      </c>
+      <c r="M79" s="13">
+        <v>1689</v>
+      </c>
+      <c r="N79" s="13">
+        <v>1765</v>
+      </c>
+      <c r="O79" s="10">
         <v>1666</v>
       </c>
-      <c r="G79" s="13">
-        <v>1697</v>
-      </c>
-      <c r="H79" s="13">
-        <v>1583</v>
-      </c>
-      <c r="I79" s="13">
-        <v>1648</v>
-      </c>
-      <c r="J79" s="13">
-        <v>1642</v>
-      </c>
-      <c r="K79" s="13">
-        <v>1625</v>
-      </c>
-      <c r="L79" s="13">
-        <v>1657</v>
-      </c>
-      <c r="M79" s="13">
-        <v>1666</v>
-      </c>
-      <c r="N79" s="13">
-        <v>1693</v>
-      </c>
-      <c r="O79" s="10">
-        <v>1658</v>
-      </c>
       <c r="P79" s="11">
-        <v>0.51</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -7464,46 +7464,46 @@
         <v>30</v>
       </c>
       <c r="C80" s="13">
+        <v>607</v>
+      </c>
+      <c r="D80" s="13">
+        <v>599</v>
+      </c>
+      <c r="E80" s="13">
         <v>592</v>
       </c>
-      <c r="D80" s="13">
-        <v>611</v>
-      </c>
-      <c r="E80" s="13">
-        <v>599</v>
-      </c>
       <c r="F80" s="13">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="G80" s="13">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="H80" s="13">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="I80" s="13">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="J80" s="13">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="K80" s="13">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L80" s="13">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M80" s="13">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="N80" s="13">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="O80" s="10">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="P80" s="11">
-        <v>0.159</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7512,43 +7512,43 @@
         <v>26</v>
       </c>
       <c r="C81" s="15">
-        <v>3409</v>
+        <v>3343</v>
       </c>
       <c r="D81" s="15">
-        <v>3348</v>
+        <v>3361</v>
       </c>
       <c r="E81" s="15">
-        <v>3361</v>
+        <v>3315</v>
       </c>
       <c r="F81" s="15">
-        <v>3315</v>
+        <v>3295</v>
       </c>
       <c r="G81" s="15">
-        <v>3295</v>
+        <v>3245</v>
       </c>
       <c r="H81" s="15">
-        <v>3245</v>
+        <v>3193</v>
       </c>
       <c r="I81" s="15">
-        <v>3193</v>
+        <v>3174</v>
       </c>
       <c r="J81" s="15">
-        <v>3174</v>
+        <v>3161</v>
       </c>
       <c r="K81" s="15">
-        <v>3161</v>
+        <v>3170</v>
       </c>
       <c r="L81" s="15">
-        <v>3170</v>
+        <v>3152</v>
       </c>
       <c r="M81" s="15">
-        <v>3159</v>
+        <v>3175</v>
       </c>
       <c r="N81" s="15">
-        <v>3182</v>
+        <v>3195</v>
       </c>
       <c r="O81" s="15">
-        <v>3251</v>
+        <v>3232</v>
       </c>
       <c r="P81" s="16">
         <v>1</v>
@@ -7562,19 +7562,19 @@
         <v>27</v>
       </c>
       <c r="C82" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="24">
         <v>6</v>
       </c>
       <c r="E82" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" s="24">
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H82" s="24">
         <v>4</v>
@@ -7586,22 +7586,22 @@
         <v>4</v>
       </c>
       <c r="K82" s="24">
+        <v>5</v>
+      </c>
+      <c r="L82" s="24">
         <v>4</v>
-      </c>
-      <c r="L82" s="24">
-        <v>5</v>
       </c>
       <c r="M82" s="24">
         <v>4</v>
       </c>
-      <c r="N82" s="24">
+      <c r="N82" s="19">
         <v>4</v>
       </c>
       <c r="O82" s="19">
         <v>5</v>
       </c>
-      <c r="P82" s="25">
-        <v>5.5E-2</v>
+      <c r="P82" s="20">
+        <v>0.06</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -7610,46 +7610,46 @@
         <v>28</v>
       </c>
       <c r="C83" s="13">
+        <v>42</v>
+      </c>
+      <c r="D83" s="13">
+        <v>45</v>
+      </c>
+      <c r="E83" s="13">
         <v>48</v>
       </c>
-      <c r="D83" s="13">
-        <v>42</v>
-      </c>
-      <c r="E83" s="13">
-        <v>45</v>
-      </c>
       <c r="F83" s="13">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G83" s="13">
         <v>44</v>
       </c>
       <c r="H83" s="13">
+        <v>47</v>
+      </c>
+      <c r="I83" s="13">
+        <v>49</v>
+      </c>
+      <c r="J83" s="13">
+        <v>50</v>
+      </c>
+      <c r="K83" s="13">
+        <v>49</v>
+      </c>
+      <c r="L83" s="13">
+        <v>50</v>
+      </c>
+      <c r="M83" s="13">
+        <v>47</v>
+      </c>
+      <c r="N83" s="10">
         <v>44</v>
       </c>
-      <c r="I83" s="13">
-        <v>47</v>
-      </c>
-      <c r="J83" s="13">
-        <v>49</v>
-      </c>
-      <c r="K83" s="13">
-        <v>50</v>
-      </c>
-      <c r="L83" s="13">
-        <v>49</v>
-      </c>
-      <c r="M83" s="13">
-        <v>50</v>
-      </c>
-      <c r="N83" s="13">
-        <v>48</v>
-      </c>
       <c r="O83" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P83" s="11">
-        <v>0.55600000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -7658,46 +7658,46 @@
         <v>29</v>
       </c>
       <c r="C84" s="13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D84" s="13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E84" s="13">
+        <v>26</v>
+      </c>
+      <c r="F84" s="13">
+        <v>29</v>
+      </c>
+      <c r="G84" s="13">
         <v>30</v>
       </c>
-      <c r="F84" s="13">
+      <c r="H84" s="13">
         <v>26</v>
       </c>
-      <c r="G84" s="13">
-        <v>29</v>
-      </c>
-      <c r="H84" s="13">
-        <v>30</v>
-      </c>
       <c r="I84" s="13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J84" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K84" s="13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L84" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M84" s="13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N84" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O84" s="10">
         <v>29</v>
       </c>
       <c r="P84" s="11">
-        <v>0.34300000000000003</v>
+        <v>0.34899999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -7706,28 +7706,28 @@
         <v>30</v>
       </c>
       <c r="C85" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" s="13">
+        <v>5</v>
+      </c>
+      <c r="E85" s="13">
         <v>4</v>
-      </c>
-      <c r="E85" s="13">
-        <v>5</v>
       </c>
       <c r="F85" s="13">
         <v>4</v>
       </c>
       <c r="G85" s="13">
+        <v>5</v>
+      </c>
+      <c r="H85" s="13">
         <v>4</v>
-      </c>
-      <c r="H85" s="13">
-        <v>5</v>
       </c>
       <c r="I85" s="13">
         <v>4</v>
       </c>
       <c r="J85" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K85" s="13">
         <v>3</v>
@@ -7745,7 +7745,7 @@
         <v>4</v>
       </c>
       <c r="P85" s="11">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7754,43 +7754,43 @@
         <v>26</v>
       </c>
       <c r="C86" s="15">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="15">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E86" s="15">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F86" s="15">
+        <v>82</v>
+      </c>
+      <c r="G86" s="15">
         <v>83</v>
       </c>
-      <c r="G86" s="15">
-        <v>82</v>
-      </c>
       <c r="H86" s="15">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I86" s="15">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J86" s="15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K86" s="15">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L86" s="15">
         <v>84</v>
       </c>
       <c r="M86" s="15">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N86" s="15">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O86" s="15">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P86" s="16">
         <v>1</v>
@@ -7836,13 +7836,13 @@
       <c r="M87" s="24">
         <v>0</v>
       </c>
-      <c r="N87" s="24">
+      <c r="N87" s="19">
         <v>0</v>
       </c>
       <c r="O87" s="19">
         <v>0</v>
       </c>
-      <c r="P87" s="25">
+      <c r="P87" s="20">
         <v>0</v>
       </c>
     </row>
@@ -7855,28 +7855,28 @@
         <v>1</v>
       </c>
       <c r="D88" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="13">
+        <v>3</v>
+      </c>
+      <c r="F88" s="13">
         <v>2</v>
       </c>
-      <c r="F88" s="13">
+      <c r="G88" s="13">
         <v>3</v>
       </c>
-      <c r="G88" s="13">
-        <v>2</v>
-      </c>
       <c r="H88" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J88" s="13">
+        <v>6</v>
+      </c>
+      <c r="K88" s="13">
         <v>5</v>
-      </c>
-      <c r="K88" s="13">
-        <v>6</v>
       </c>
       <c r="L88" s="13">
         <v>5</v>
@@ -7884,14 +7884,14 @@
       <c r="M88" s="13">
         <v>5</v>
       </c>
-      <c r="N88" s="13">
-        <v>5</v>
+      <c r="N88" s="10">
+        <v>4</v>
       </c>
       <c r="O88" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P88" s="11">
-        <v>0.161</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="P89" s="11">
-        <v>3.7999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -7948,13 +7948,13 @@
         <v>30</v>
       </c>
       <c r="C90" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D90" s="13">
         <v>19</v>
       </c>
       <c r="E90" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="13">
         <v>18</v>
@@ -7963,7 +7963,7 @@
         <v>18</v>
       </c>
       <c r="H90" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" s="13">
         <v>17</v>
@@ -7975,19 +7975,19 @@
         <v>17</v>
       </c>
       <c r="L90" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M90" s="13">
         <v>15</v>
       </c>
       <c r="N90" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O90" s="10">
         <v>17</v>
       </c>
       <c r="P90" s="11">
-        <v>0.80100000000000005</v>
+        <v>0.77300000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7996,34 +7996,34 @@
         <v>26</v>
       </c>
       <c r="C91" s="15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D91" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E91" s="15">
         <v>22</v>
       </c>
       <c r="F91" s="15">
+        <v>21</v>
+      </c>
+      <c r="G91" s="15">
         <v>22</v>
-      </c>
-      <c r="G91" s="15">
-        <v>21</v>
       </c>
       <c r="H91" s="15">
         <v>22</v>
       </c>
       <c r="I91" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J91" s="15">
+        <v>24</v>
+      </c>
+      <c r="K91" s="15">
         <v>23</v>
       </c>
-      <c r="K91" s="15">
-        <v>24</v>
-      </c>
       <c r="L91" s="15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M91" s="15">
         <v>21</v>
@@ -8046,22 +8046,22 @@
         <v>27</v>
       </c>
       <c r="C92" s="24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="24">
         <v>43</v>
       </c>
       <c r="E92" s="24">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F92" s="24">
         <v>40</v>
       </c>
       <c r="G92" s="24">
+        <v>41</v>
+      </c>
+      <c r="H92" s="24">
         <v>40</v>
-      </c>
-      <c r="H92" s="24">
-        <v>41</v>
       </c>
       <c r="I92" s="24">
         <v>40</v>
@@ -8070,22 +8070,22 @@
         <v>40</v>
       </c>
       <c r="K92" s="24">
+        <v>39</v>
+      </c>
+      <c r="L92" s="24">
+        <v>41</v>
+      </c>
+      <c r="M92" s="24">
         <v>40</v>
       </c>
-      <c r="L92" s="24">
-        <v>39</v>
-      </c>
-      <c r="M92" s="24">
-        <v>42</v>
-      </c>
-      <c r="N92" s="24">
-        <v>42</v>
+      <c r="N92" s="19">
+        <v>40</v>
       </c>
       <c r="O92" s="19">
         <v>41</v>
       </c>
-      <c r="P92" s="25">
-        <v>0.20200000000000001</v>
+      <c r="P92" s="20">
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -8094,46 +8094,46 @@
         <v>28</v>
       </c>
       <c r="C93" s="13">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D93" s="13">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E93" s="13">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F93" s="13">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G93" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H93" s="13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I93" s="13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J93" s="13">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K93" s="13">
         <v>48</v>
       </c>
       <c r="L93" s="13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M93" s="13">
-        <v>43</v>
-      </c>
-      <c r="N93" s="13">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="N93" s="10">
+        <v>52</v>
       </c>
       <c r="O93" s="10">
         <v>55</v>
       </c>
       <c r="P93" s="11">
-        <v>0.27</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -8142,34 +8142,34 @@
         <v>29</v>
       </c>
       <c r="C94" s="13">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D94" s="13">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E94" s="13">
         <v>70</v>
       </c>
       <c r="F94" s="13">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G94" s="13">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H94" s="13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I94" s="13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J94" s="13">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K94" s="13">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L94" s="13">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M94" s="13">
         <v>62</v>
@@ -8178,10 +8178,10 @@
         <v>64</v>
       </c>
       <c r="O94" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P94" s="11">
-        <v>0.33600000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -8193,22 +8193,22 @@
         <v>41</v>
       </c>
       <c r="D95" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E95" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F95" s="13">
         <v>42</v>
       </c>
       <c r="G95" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H95" s="13">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I95" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J95" s="13">
         <v>37</v>
@@ -8217,19 +8217,19 @@
         <v>37</v>
       </c>
       <c r="L95" s="13">
+        <v>38</v>
+      </c>
+      <c r="M95" s="13">
         <v>37</v>
       </c>
-      <c r="M95" s="13">
-        <v>39</v>
-      </c>
       <c r="N95" s="13">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O95" s="10">
         <v>39</v>
       </c>
       <c r="P95" s="11">
-        <v>0.193</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8238,43 +8238,43 @@
         <v>26</v>
       </c>
       <c r="C96" s="15">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D96" s="15">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E96" s="15">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F96" s="15">
         <v>211</v>
       </c>
       <c r="G96" s="15">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H96" s="15">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I96" s="15">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J96" s="15">
         <v>192</v>
       </c>
       <c r="K96" s="15">
+        <v>187</v>
+      </c>
+      <c r="L96" s="15">
+        <v>186</v>
+      </c>
+      <c r="M96" s="15">
         <v>192</v>
       </c>
-      <c r="L96" s="15">
-        <v>187</v>
-      </c>
-      <c r="M96" s="15">
-        <v>185</v>
-      </c>
       <c r="N96" s="15">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O96" s="15">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P96" s="16">
         <v>1</v>
@@ -8288,46 +8288,46 @@
         <v>27</v>
       </c>
       <c r="C97" s="24">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D97" s="24">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E97" s="24">
         <v>36</v>
       </c>
       <c r="F97" s="24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97" s="24">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H97" s="24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I97" s="24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97" s="24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K97" s="24">
+        <v>35</v>
+      </c>
+      <c r="L97" s="24">
+        <v>33</v>
+      </c>
+      <c r="M97" s="24">
         <v>34</v>
       </c>
-      <c r="L97" s="24">
-        <v>35</v>
-      </c>
-      <c r="M97" s="24">
-        <v>33</v>
-      </c>
-      <c r="N97" s="24">
+      <c r="N97" s="19">
         <v>33</v>
       </c>
       <c r="O97" s="19">
         <v>36</v>
       </c>
-      <c r="P97" s="25">
-        <v>0.21199999999999999</v>
+      <c r="P97" s="20">
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -8342,34 +8342,34 @@
         <v>45</v>
       </c>
       <c r="E98" s="13">
+        <v>43</v>
+      </c>
+      <c r="F98" s="13">
+        <v>44</v>
+      </c>
+      <c r="G98" s="13">
+        <v>42</v>
+      </c>
+      <c r="H98" s="13">
+        <v>43</v>
+      </c>
+      <c r="I98" s="13">
+        <v>47</v>
+      </c>
+      <c r="J98" s="13">
         <v>45</v>
-      </c>
-      <c r="F98" s="13">
-        <v>43</v>
-      </c>
-      <c r="G98" s="13">
-        <v>44</v>
-      </c>
-      <c r="H98" s="13">
-        <v>42</v>
-      </c>
-      <c r="I98" s="13">
-        <v>43</v>
-      </c>
-      <c r="J98" s="13">
-        <v>47</v>
       </c>
       <c r="K98" s="13">
         <v>45</v>
       </c>
       <c r="L98" s="13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M98" s="13">
-        <v>43</v>
-      </c>
-      <c r="N98" s="13">
         <v>42</v>
+      </c>
+      <c r="N98" s="10">
+        <v>41</v>
       </c>
       <c r="O98" s="10">
         <v>44</v>
@@ -8384,40 +8384,40 @@
         <v>29</v>
       </c>
       <c r="C99" s="13">
+        <v>81</v>
+      </c>
+      <c r="D99" s="13">
+        <v>76</v>
+      </c>
+      <c r="E99" s="13">
+        <v>73</v>
+      </c>
+      <c r="F99" s="13">
         <v>78</v>
       </c>
-      <c r="D99" s="13">
-        <v>81</v>
-      </c>
-      <c r="E99" s="13">
-        <v>76</v>
-      </c>
-      <c r="F99" s="13">
+      <c r="G99" s="13">
+        <v>74</v>
+      </c>
+      <c r="H99" s="13">
+        <v>75</v>
+      </c>
+      <c r="I99" s="13">
+        <v>77</v>
+      </c>
+      <c r="J99" s="13">
+        <v>74</v>
+      </c>
+      <c r="K99" s="13">
+        <v>72</v>
+      </c>
+      <c r="L99" s="13">
         <v>73</v>
       </c>
-      <c r="G99" s="13">
-        <v>78</v>
-      </c>
-      <c r="H99" s="13">
-        <v>74</v>
-      </c>
-      <c r="I99" s="13">
-        <v>75</v>
-      </c>
-      <c r="J99" s="13">
-        <v>77</v>
-      </c>
-      <c r="K99" s="13">
-        <v>74</v>
-      </c>
-      <c r="L99" s="13">
-        <v>72</v>
-      </c>
       <c r="M99" s="13">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N99" s="13">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O99" s="10">
         <v>75</v>
@@ -8432,28 +8432,28 @@
         <v>30</v>
       </c>
       <c r="C100" s="13">
+        <v>17</v>
+      </c>
+      <c r="D100" s="13">
         <v>15</v>
       </c>
-      <c r="D100" s="13">
-        <v>16</v>
-      </c>
       <c r="E100" s="13">
+        <v>14</v>
+      </c>
+      <c r="F100" s="13">
         <v>15</v>
       </c>
-      <c r="F100" s="13">
+      <c r="G100" s="13">
         <v>14</v>
-      </c>
-      <c r="G100" s="13">
-        <v>15</v>
       </c>
       <c r="H100" s="13">
         <v>14</v>
       </c>
       <c r="I100" s="13">
+        <v>13</v>
+      </c>
+      <c r="J100" s="13">
         <v>14</v>
-      </c>
-      <c r="J100" s="13">
-        <v>13</v>
       </c>
       <c r="K100" s="13">
         <v>14</v>
@@ -8471,7 +8471,7 @@
         <v>14</v>
       </c>
       <c r="P100" s="11">
-        <v>8.5000000000000006E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -8479,46 +8479,46 @@
       <c r="B101" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="27">
-        <v>177</v>
-      </c>
-      <c r="D101" s="27">
+      <c r="C101" s="26">
         <v>184</v>
       </c>
-      <c r="E101" s="27">
+      <c r="D101" s="26">
         <v>172</v>
       </c>
-      <c r="F101" s="27">
+      <c r="E101" s="26">
         <v>166</v>
       </c>
-      <c r="G101" s="27">
+      <c r="F101" s="26">
         <v>174</v>
       </c>
-      <c r="H101" s="27">
+      <c r="G101" s="26">
         <v>161</v>
       </c>
-      <c r="I101" s="27">
+      <c r="H101" s="26">
         <v>170</v>
       </c>
-      <c r="J101" s="27">
+      <c r="I101" s="26">
         <v>175</v>
       </c>
-      <c r="K101" s="27">
+      <c r="J101" s="26">
         <v>168</v>
       </c>
-      <c r="L101" s="27">
+      <c r="K101" s="26">
         <v>166</v>
       </c>
-      <c r="M101" s="27">
+      <c r="L101" s="26">
+        <v>164</v>
+      </c>
+      <c r="M101" s="26">
         <v>163</v>
       </c>
-      <c r="N101" s="27">
-        <v>161</v>
-      </c>
-      <c r="O101" s="27">
-        <v>170</v>
-      </c>
-      <c r="P101" s="28">
+      <c r="N101" s="15">
+        <v>159</v>
+      </c>
+      <c r="O101" s="15">
+        <v>169</v>
+      </c>
+      <c r="P101" s="16">
         <v>1</v>
       </c>
     </row>
